--- a/reuniões/dailys/Dailys_Outubro/Daily_18_10.xlsx
+++ b/reuniões/dailys/Dailys_Outubro/Daily_18_10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5922929E-961F-9D4F-8004-E6D75AEECA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B02E2B-F533-7441-9DBE-0B8DB784BB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,54 +854,6 @@
     <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Poppins"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Poppins"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF922A74"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1136,6 +1088,30 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Poppins"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1148,6 +1124,30 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFEFD5EC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Poppins"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF922A74"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1378,8 +1378,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DadosDaReunião" displayName="DadosDaReunião" ref="B8:C18" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15">
   <autoFilter ref="B8:C17" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="2">
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Assuntos Discutidos" dataDxfId="14" totalsRowDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{19E48FEE-BF0F-4F91-A6DF-64EF1072BC46}" name="Presentes" dataDxfId="13" totalsRowDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Assuntos Discutidos" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{19E48FEE-BF0F-4F91-A6DF-64EF1072BC46}" name="Presentes" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1391,17 +1391,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE37D6C8-AC04-46A6-AAA6-24B204D1D210}" name="DadosDaReunião2" displayName="DadosDaReunião2" ref="B21:E29" totalsRowCount="1" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE37D6C8-AC04-46A6-AAA6-24B204D1D210}" name="DadosDaReunião2" displayName="DadosDaReunião2" ref="B21:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
   <autoFilter ref="B21:E28" xr:uid="{CE37D6C8-AC04-46A6-AAA6-24B204D1D210}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BCB40325-DDE7-4562-A460-C0F89FD9179B}" name="Atividades" dataDxfId="9" totalsRowDxfId="5" dataCellStyle="Horário de Início/Término">
+    <tableColumn id="1" xr3:uid="{BCB40325-DDE7-4562-A460-C0F89FD9179B}" name="Atividades" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Horário de Início/Término">
       <calculatedColumnFormula>IF(ISBLANK(C21),"",C21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{93D62D18-C90E-48BF-B30A-D911F7A6FCD8}" name="Entrega" dataDxfId="8" totalsRowDxfId="4" dataCellStyle="Horário de Início/Término">
+    <tableColumn id="2" xr3:uid="{93D62D18-C90E-48BF-B30A-D911F7A6FCD8}" name="Entrega" dataDxfId="6" totalsRowDxfId="2" dataCellStyle="Horário de Início/Término">
       <calculatedColumnFormula>IFERROR(IF(ISBLANK(#REF!),"",B22+#REF!), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C88724A6-1AAA-442A-AC5D-FA9CC640F437}" name="Responsável" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Hora"/>
-    <tableColumn id="4" xr3:uid="{9E5AC715-A849-49E0-86B6-4B41F726ED66}" name="Situação" dataDxfId="6" totalsRowDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{C88724A6-1AAA-442A-AC5D-FA9CC640F437}" name="Responsável" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Hora"/>
+    <tableColumn id="4" xr3:uid="{9E5AC715-A849-49E0-86B6-4B41F726ED66}" name="Situação" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1645,8 +1645,8 @@
   </sheetPr>
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="141" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="141" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1848,7 +1848,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="23">
-        <v>45575</v>
+        <v>45583</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>30</v>
@@ -1942,6 +1942,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD11765F9AC0004AAF0A4CAAFDFAF16A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa0996e3a60c29644e9f2cf3d3cad0da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9fdc8751-6fef-42ec-b05c-835dd8c535b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61aa44093c7789ab6990bc79f23b9731" ns3:_="">
     <xsd:import namespace="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -2097,14 +2105,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F57C8022-9D6B-4416-AED0-B410FD575972}">
   <ds:schemaRefs>
@@ -2114,6 +2114,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{932E6384-755C-48D1-BEC1-844EA204F516}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6249D248-E7D3-408E-8CE5-50FC0655C604}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2131,16 +2141,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{932E6384-755C-48D1-BEC1-844EA204F516}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>